--- a/procedure_function_test_results.xlsx
+++ b/procedure_function_test_results.xlsx
@@ -488,14 +488,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fail</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>('42000', '[42000] [Microsoft][ODBC SQL Server Driver][SQL Server]Procedure or function RegisterUser has too many arguments specified. (8144) (SQLExecDirectW)')</t>
-        </is>
-      </c>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>fail</t>
@@ -716,7 +712,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>('23000', '[23000] [Microsoft][ODBC SQL Server Driver][SQL Server]The INSERT statement conflicted with the FOREIGN KEY constraint "FK__CourseIns__UserI__5AEE82B9". The conflict occurred in database "ExSysTest", table "dbo.User", column \'UserId\'. (547) (SQLExecDirectW); [23000] [Microsoft][ODBC SQL Server Driver][SQL Server]The statement has been terminated. (3621)')</t>
+          <t>('23000', '[23000] [Microsoft][ODBC SQL Server Driver][SQL Server]The INSERT statement conflicted with the FOREIGN KEY constraint "FK__CourseIns__Cours__59FA5E80". The conflict occurred in database "ExSysTest", table "dbo.Course", column \'CourseId\'. (547) (SQLExecDirectW); [23000] [Microsoft][ODBC SQL Server Driver][SQL Server]The statement has been terminated. (3621)')</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
